--- a/data/raw/DOD_County_Shares.xlsx
+++ b/data/raw/DOD_County_Shares.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b19c66fe1ac65ec7/Documents/R/MEIS_Methodology/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumeet.bedi\Documents\R\MEIS_Methodology\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3EED1CEC-7F1B-4525-823A-970F244C33DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C79C137F-4444-4CCB-A93E-F226F8490775}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1D3099-0122-48A3-8E20-AF8F99CE138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Counties" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="63">
   <si>
     <t>2016 DOD Employment</t>
   </si>
@@ -221,21 +221,13 @@
     <t>YUBA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>District</t>
-    </r>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
     <t>geography</t>
+  </si>
+  <si>
+    <t>District</t>
   </si>
 </sst>
 </file>
@@ -248,7 +240,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,12 +280,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -312,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -393,6 +379,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -400,23 +430,17 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,80 +455,137 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -791,9 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -804,7 +883,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1458,865 +1537,863 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="22">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0.84688936860463704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30">
+        <v>2</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="30">
+        <v>2</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="20">
+        <v>2</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.47341402004847699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="20">
+        <v>2</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="19">
+        <v>3</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="36">
+        <v>3</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.335443467723823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="22">
+        <v>3</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="22">
+        <v>3</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="26">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29">
-        <v>0.83400000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="B22" s="22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="26">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="B23" s="22">
+        <v>3</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="26">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="B24" s="22">
+        <v>3</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="22">
+        <v>3</v>
+      </c>
+      <c r="C25" s="24">
+        <v>7.5227587634173906E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="26">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="25">
-        <v>2</v>
-      </c>
-      <c r="C13" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24">
-        <v>2</v>
-      </c>
-      <c r="C14" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="24">
-        <v>2</v>
-      </c>
-      <c r="C15" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="24">
-        <v>2</v>
-      </c>
-      <c r="C16" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="B26" s="36">
+        <v>3</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="18">
+        <v>3</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.15311063139536299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="20">
+        <v>4</v>
+      </c>
+      <c r="C28" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="20">
+        <v>4</v>
+      </c>
+      <c r="C29" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="20">
+        <v>4</v>
+      </c>
+      <c r="C30" s="27">
+        <v>0.29651875487041601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="24">
-        <v>2</v>
-      </c>
-      <c r="C17" s="32">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="23">
-        <v>2</v>
-      </c>
-      <c r="C18" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="22">
-        <v>3</v>
-      </c>
-      <c r="C19" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="26">
-        <v>3</v>
-      </c>
-      <c r="C20" s="29">
-        <v>0.91700000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="26">
-        <v>3</v>
-      </c>
-      <c r="C21" s="29">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="B31" s="20">
+        <v>4</v>
+      </c>
+      <c r="C31" s="27">
+        <v>0.52658597995152301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="38">
+        <v>4</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.75000230497598197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="22">
+        <v>5</v>
+      </c>
+      <c r="C33" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="22">
+        <v>5</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="36">
+        <v>5</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.66455653227617695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.121582388555179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="36">
+        <v>5</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.20172983131828501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="22">
+        <v>5</v>
+      </c>
+      <c r="C38" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="22">
+        <v>5</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.59078831143078603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="22">
+        <v>5</v>
+      </c>
+      <c r="C40" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="26">
-        <v>3</v>
-      </c>
-      <c r="C22" s="29">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="26">
-        <v>3</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0.64599999999999991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="26">
-        <v>3</v>
-      </c>
-      <c r="C24" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="26">
-        <v>3</v>
-      </c>
-      <c r="C25" s="29">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="21">
-        <v>3</v>
-      </c>
-      <c r="C26" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="25">
-        <v>4</v>
-      </c>
-      <c r="C27" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="24">
-        <v>4</v>
-      </c>
-      <c r="C28" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="B41" s="21">
         <v>6</v>
       </c>
-      <c r="B29" s="24">
-        <v>4</v>
-      </c>
-      <c r="C29" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="24">
-        <v>4</v>
-      </c>
-      <c r="C30" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="24">
-        <v>4</v>
-      </c>
-      <c r="C31" s="32">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="24">
-        <v>4</v>
-      </c>
-      <c r="C32" s="32">
-        <v>0.18899999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="24">
-        <v>4</v>
-      </c>
-      <c r="C33" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="24">
-        <v>4</v>
-      </c>
-      <c r="C34" s="32">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="24">
-        <v>4</v>
-      </c>
-      <c r="C35" s="32">
-        <v>0.871</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="23">
-        <v>4</v>
-      </c>
-      <c r="C36" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="22">
-        <v>5</v>
-      </c>
-      <c r="C37" s="28">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="26">
-        <v>5</v>
-      </c>
-      <c r="C38" s="29">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="26">
-        <v>5</v>
-      </c>
-      <c r="C39" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="26">
-        <v>5</v>
-      </c>
-      <c r="C40" s="29">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="21">
-        <v>5</v>
-      </c>
-      <c r="C41" s="30">
-        <v>0.61599999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="26">
+        <v>0.47957200653170801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="25">
-        <v>6</v>
-      </c>
-      <c r="C42" s="31">
-        <v>0.46100000000000002</v>
+      <c r="B42" s="22">
+        <v>7</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.44520040583411802</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="36">
+        <v>7</v>
+      </c>
+      <c r="C43" s="24">
+        <v>5.47049616283769E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="23">
-        <v>6</v>
-      </c>
-      <c r="C43" s="33">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="20">
+      <c r="B44" s="18">
         <v>7</v>
       </c>
-      <c r="C44" s="34">
-        <v>0.495</v>
+      <c r="C44" s="25">
+        <v>0.249997695024018</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="21">
+        <v>8</v>
+      </c>
+      <c r="C45" s="26">
+        <v>0.38118552927951999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="20">
+        <v>8</v>
+      </c>
+      <c r="C46" s="27">
+        <v>0.70293419551330005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="36">
+        <v>9</v>
+      </c>
+      <c r="C47" s="24">
+        <v>1.51018475792098E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="36">
+        <v>9</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0.95250690519777703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="36">
+        <v>9</v>
+      </c>
+      <c r="C49" s="24">
+        <v>3.6594379247561898E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="42">
+        <v>10</v>
+      </c>
+      <c r="C50" s="27">
+        <v>3.2604124343319899E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="43">
+        <v>10</v>
+      </c>
+      <c r="C51" s="39">
+        <v>0.60371262314127005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="6">
+        <v>11</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.86865494923959397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="10">
+        <v>12</v>
+      </c>
+      <c r="C53" s="28">
+        <v>0.45148764336476799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="8">
+        <v>13</v>
+      </c>
+      <c r="C54" s="23">
+        <v>9.5632636144234298E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="44">
+        <v>13</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0.79827016868171496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="44">
+        <v>13</v>
+      </c>
+      <c r="C56" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="44">
+        <v>13</v>
+      </c>
+      <c r="C57" s="24">
+        <v>4.7493094802222503E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="44">
+        <v>13</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0.40555225064445799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="45">
+        <v>14</v>
+      </c>
+      <c r="C59" s="46">
+        <v>0.45148764336476799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="44">
         <v>15</v>
       </c>
-      <c r="B45" s="25">
-        <v>8</v>
-      </c>
-      <c r="C45" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="24">
-        <v>8</v>
-      </c>
-      <c r="C46" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="23">
-        <v>8</v>
-      </c>
-      <c r="C47" s="33">
-        <v>0.32899999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="22">
-        <v>9</v>
-      </c>
-      <c r="C48" s="28">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="21">
-        <v>9</v>
-      </c>
-      <c r="C49" s="30">
-        <v>1.8000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="20">
-        <v>9</v>
-      </c>
-      <c r="C50" s="34">
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="14">
-        <v>10</v>
-      </c>
-      <c r="C51" s="31">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="12">
-        <v>10</v>
-      </c>
-      <c r="C52" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="4">
+      <c r="C60" s="24">
+        <v>0.13134505076040601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="6">
+        <v>15</v>
+      </c>
+      <c r="C61" s="25">
+        <v>0.84286081965778104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="16">
+        <v>16</v>
+      </c>
+      <c r="C62" s="27">
+        <v>0.15713918034221899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="10">
+        <v>16</v>
+      </c>
+      <c r="C63" s="28">
+        <v>0.32976486232952301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="8">
+        <v>17</v>
+      </c>
+      <c r="C64" s="23">
+        <v>6.4420588927143294E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="6">
+        <v>17</v>
+      </c>
+      <c r="C65" s="25">
+        <v>0.335860298741328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="12">
+        <v>18</v>
+      </c>
+      <c r="C66" s="26">
+        <v>0.611001702480099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="16">
+        <v>18</v>
+      </c>
+      <c r="C67" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="42">
+        <v>18</v>
+      </c>
+      <c r="C68" s="27">
+        <v>0.18692362406836599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="43">
+        <v>18</v>
+      </c>
+      <c r="C69" s="39">
+        <v>0.24872121819629101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="8">
+        <v>19</v>
+      </c>
+      <c r="C70" s="23">
+        <v>0.388998297519901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="14">
+        <v>19</v>
+      </c>
+      <c r="C71" s="24">
+        <v>0.36189903157412201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="14">
+        <v>19</v>
+      </c>
+      <c r="C72" s="24">
+        <v>0.147451214860783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="6">
+        <v>19</v>
+      </c>
+      <c r="C73" s="25">
+        <v>0.75127878180370899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="34">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="6">
-        <v>12</v>
-      </c>
-      <c r="C54" s="35">
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="10">
-        <v>13</v>
-      </c>
-      <c r="C55" s="28">
-        <v>0.46500000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="8">
-        <v>13</v>
-      </c>
-      <c r="C56" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="14">
-        <v>14</v>
-      </c>
-      <c r="C57" s="31">
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="12">
-        <v>14</v>
-      </c>
-      <c r="C58" s="33">
-        <v>0.83599999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="10">
-        <v>15</v>
-      </c>
-      <c r="C59" s="28">
-        <v>0.41600000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="8">
-        <v>15</v>
-      </c>
-      <c r="C60" s="30">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="14">
+      <c r="B74" s="12">
+        <v>20</v>
+      </c>
+      <c r="C74" s="26">
+        <v>0.19832309727265299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="31">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="18">
-        <v>16</v>
-      </c>
-      <c r="C62" s="32">
-        <v>0.81099999999999994</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="12">
-        <v>16</v>
-      </c>
-      <c r="C63" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="10">
-        <v>17</v>
-      </c>
-      <c r="C64" s="28">
-        <v>0.11900000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="8">
-        <v>17</v>
-      </c>
-      <c r="C65" s="30">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="14">
-        <v>18</v>
-      </c>
-      <c r="C66" s="31">
-        <v>0.16399999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="18">
-        <v>18</v>
-      </c>
-      <c r="C67" s="32">
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="12">
-        <v>18</v>
-      </c>
-      <c r="C68" s="33">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="4">
-        <v>19</v>
-      </c>
-      <c r="C69" s="34">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="14">
+      <c r="B75" s="42">
         <v>20</v>
       </c>
-      <c r="C70" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="18">
-        <v>20</v>
-      </c>
-      <c r="C71" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="18">
-        <v>20</v>
-      </c>
-      <c r="C72" s="32">
-        <v>1.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="12">
-        <v>20</v>
-      </c>
-      <c r="C73" s="33">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="10">
-        <v>21</v>
-      </c>
-      <c r="C74" s="28">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" s="16">
-        <v>21</v>
-      </c>
-      <c r="C75" s="29">
-        <v>0.374</v>
+      <c r="C75" s="27">
+        <v>0.43043709125615798</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="16">
-        <v>21</v>
-      </c>
-      <c r="C76" s="29">
-        <v>1</v>
+      <c r="B76" s="42">
+        <v>20</v>
+      </c>
+      <c r="C76" s="27">
+        <v>0.44304528156668199</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="8">
-        <v>21</v>
-      </c>
-      <c r="C77" s="30">
-        <v>7.9000000000000001E-2</v>
+      <c r="B77" s="10">
+        <v>20</v>
+      </c>
+      <c r="C77" s="28">
+        <v>0.23922232326294199</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2324,362 +2401,362 @@
         <v>11</v>
       </c>
       <c r="B78" s="14">
+        <v>21</v>
+      </c>
+      <c r="C78" s="24">
+        <v>0.58446187802793403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="6">
+        <v>21</v>
+      </c>
+      <c r="C79" s="25">
+        <v>0.35915765720251902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="42">
         <v>22</v>
       </c>
-      <c r="C78" s="31">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="12">
-        <v>22</v>
-      </c>
-      <c r="C79" s="33">
-        <v>0.70900000000000007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" s="10">
-        <v>23</v>
-      </c>
-      <c r="C80" s="28">
-        <v>0.626</v>
+      <c r="C80" s="27">
+        <v>0.55016949076594601</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="16">
-        <v>23</v>
-      </c>
-      <c r="C81" s="29">
-        <v>8.0000000000000002E-3</v>
+        <v>17</v>
+      </c>
+      <c r="B81" s="42">
+        <v>22</v>
+      </c>
+      <c r="C81" s="27">
+        <v>0.55695471843331801</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="8">
-        <v>23</v>
-      </c>
-      <c r="C82" s="30">
-        <v>0.21199999999999999</v>
+      <c r="B82" s="10">
+        <v>22</v>
+      </c>
+      <c r="C82" s="28">
+        <v>0.40162001953453902</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="14">
+        <v>23</v>
+      </c>
+      <c r="C83" s="24">
+        <v>1.9393417977895601E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="14">
+        <v>23</v>
+      </c>
+      <c r="C84" s="24">
+        <v>1.6747734806168001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="6">
+        <v>23</v>
+      </c>
+      <c r="C85" s="25">
+        <v>0.33297036169955102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="14">
+      <c r="B86" s="42">
         <v>24</v>
       </c>
-      <c r="C83" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="19" t="s">
+      <c r="C86" s="27">
+        <v>0.63810096842587805</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B87" s="42">
         <v>24</v>
       </c>
-      <c r="C84" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="C87" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B88" s="43">
         <v>24</v>
       </c>
-      <c r="C85" s="33">
-        <v>1.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
+      <c r="C88" s="39">
+        <v>0.15991909059723899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="44">
+        <v>25</v>
+      </c>
+      <c r="C89" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="44">
+        <v>25</v>
+      </c>
+      <c r="C90" s="24">
+        <v>0.239685154283171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="48">
+        <v>25</v>
+      </c>
+      <c r="C91" s="34">
+        <v>3.2181242408786202E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="10">
-        <v>25</v>
-      </c>
-      <c r="C86" s="28">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
+      <c r="B92" s="42">
+        <v>26</v>
+      </c>
+      <c r="C92" s="27">
+        <v>5.1570841584621498E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="8">
-        <v>25</v>
-      </c>
-      <c r="C87" s="30">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+      <c r="B93" s="10">
+        <v>26</v>
+      </c>
+      <c r="C93" s="28">
+        <v>0.83777783035048903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="14">
-        <v>26</v>
-      </c>
-      <c r="C88" s="31">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+      <c r="B94" s="50">
+        <v>27</v>
+      </c>
+      <c r="C94" s="51">
+        <v>7.5644167761585807E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="42">
+        <v>28</v>
+      </c>
+      <c r="C95" s="27">
+        <v>6.8389536308288895E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="10">
+        <v>28</v>
+      </c>
+      <c r="C96" s="28">
+        <v>3.34348247278171E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="50">
+        <v>29</v>
+      </c>
+      <c r="C97" s="51">
+        <v>7.5644068238559903E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="10">
+        <v>30</v>
+      </c>
+      <c r="C98" s="28">
+        <v>7.5644068238559903E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="50">
+        <v>31</v>
+      </c>
+      <c r="C99" s="51">
+        <v>7.5644068238559903E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="42">
+        <v>32</v>
+      </c>
+      <c r="C100" s="27">
+        <v>7.5450396430069205E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B89" s="12">
-        <v>26</v>
-      </c>
-      <c r="C89" s="33">
-        <v>0.84400000000000008</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
+      <c r="B101" s="10">
+        <v>32</v>
+      </c>
+      <c r="C101" s="28">
+        <v>2.3030790522717299E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="50">
+        <v>33</v>
+      </c>
+      <c r="C102" s="51">
+        <v>0.34863027898972199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="10">
-        <v>27</v>
-      </c>
-      <c r="C90" s="28">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
+      <c r="B103" s="10">
+        <v>34</v>
+      </c>
+      <c r="C103" s="28">
+        <v>7.5644167761585807E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="44">
+        <v>35</v>
+      </c>
+      <c r="C104" s="24">
+        <v>1.5242946653866701E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="44">
+        <v>35</v>
+      </c>
+      <c r="C105" s="24">
+        <v>2.0522553215428899E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="8">
-        <v>27</v>
-      </c>
-      <c r="C91" s="30">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
+      <c r="B106" s="48">
+        <v>35</v>
+      </c>
+      <c r="C106" s="34">
+        <v>0.255622085065628</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="6">
-        <v>28</v>
-      </c>
-      <c r="C92" s="35">
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+      <c r="B107" s="10">
+        <v>36</v>
+      </c>
+      <c r="C107" s="28">
+        <v>7.5644068238559903E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="4">
-        <v>29</v>
-      </c>
-      <c r="C93" s="34">
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
+      <c r="B108" s="6">
+        <v>37</v>
+      </c>
+      <c r="C108" s="25">
+        <v>7.5644068238559903E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="14">
-        <v>30</v>
-      </c>
-      <c r="C94" s="31">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B95" s="12">
-        <v>30</v>
-      </c>
-      <c r="C95" s="33">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" s="4">
+      <c r="B109" s="42">
+        <v>38</v>
+      </c>
+      <c r="C109" s="27">
+        <v>6.9350729692873897E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="34">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="6">
-        <v>32</v>
-      </c>
-      <c r="C97" s="35">
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="4">
-        <v>33</v>
-      </c>
-      <c r="C98" s="34">
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="6">
-        <v>34</v>
-      </c>
-      <c r="C99" s="35">
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="10">
-        <v>35</v>
-      </c>
-      <c r="C100" s="28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" s="8">
-        <v>35</v>
-      </c>
-      <c r="C101" s="30">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="6">
-        <v>36</v>
-      </c>
-      <c r="C102" s="35">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="4">
-        <v>37</v>
-      </c>
-      <c r="C103" s="34">
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" s="14">
+      <c r="B110" s="10">
         <v>38</v>
       </c>
-      <c r="C104" s="31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B105" s="12">
-        <v>38</v>
-      </c>
-      <c r="C105" s="33">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" s="10">
-        <v>39</v>
-      </c>
-      <c r="C106" s="28">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107" s="16">
-        <v>39</v>
-      </c>
-      <c r="C107" s="29">
-        <v>0.14400000000000002</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="8">
-        <v>39</v>
-      </c>
-      <c r="C108" s="30">
-        <v>3.7000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="6">
-        <v>40</v>
-      </c>
-      <c r="C109" s="35">
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110" s="4">
-        <v>41</v>
-      </c>
-      <c r="C110" s="34">
-        <v>0.32100000000000001</v>
+      <c r="C110" s="28">
+        <v>1.98038841093514E-2</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2687,199 +2764,218 @@
         <v>34</v>
       </c>
       <c r="B111" s="6">
-        <v>42</v>
-      </c>
-      <c r="C111" s="35">
-        <v>0.32100000000000001</v>
+        <v>39</v>
+      </c>
+      <c r="C111" s="25">
+        <v>0.31441013171795901</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B112" s="4">
-        <v>43</v>
-      </c>
-      <c r="C112" s="34">
-        <v>7.2000000000000008E-2</v>
+      <c r="A112" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="42">
+        <v>40</v>
+      </c>
+      <c r="C112" s="27">
+        <v>0.216777272855393</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" s="6">
-        <v>44</v>
-      </c>
-      <c r="C113" s="35">
-        <v>7.2000000000000008E-2</v>
+      <c r="A113" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="42">
+        <v>40</v>
+      </c>
+      <c r="C113" s="27">
+        <v>4.5250384911629596E-3</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B114" s="4">
-        <v>45</v>
-      </c>
-      <c r="C114" s="34">
-        <v>0.23399999999999999</v>
+      <c r="A114" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="43">
+        <v>40</v>
+      </c>
+      <c r="C114" s="39">
+        <v>2.61243252764027E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="6">
+        <v>41</v>
+      </c>
+      <c r="C115" s="25">
+        <v>0.31441013171795901</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="43">
+        <v>42</v>
+      </c>
+      <c r="C116" s="39">
+        <v>7.5644068238559903E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="6">
+        <v>43</v>
+      </c>
+      <c r="C117" s="25">
+        <v>7.5644167761585807E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="4">
+        <v>44</v>
+      </c>
+      <c r="C118" s="29">
+        <v>7.5643968715533902E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="8">
+        <v>45</v>
+      </c>
+      <c r="C119" s="23">
+        <v>8.2936518441716206E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B120" s="6">
+        <v>45</v>
+      </c>
+      <c r="C120" s="25">
+        <v>0.211942023357271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="12">
         <v>46</v>
       </c>
-      <c r="C115" s="35">
-        <v>0.23399999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="10">
+      <c r="C121" s="26">
+        <v>0.23804090810865</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="6">
         <v>47</v>
       </c>
-      <c r="C116" s="28">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
+      <c r="C122" s="25">
+        <v>0.238040594924538</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="42">
+        <v>48</v>
+      </c>
+      <c r="C123" s="27">
+        <v>0.106446990574319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="10">
+        <v>48</v>
+      </c>
+      <c r="C124" s="28">
+        <v>0.152239888900396</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B117" s="8">
-        <v>47</v>
-      </c>
-      <c r="C117" s="30">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B118" s="6">
-        <v>48</v>
-      </c>
-      <c r="C118" s="35">
-        <v>0.23399999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B119" s="10">
+      <c r="B125" s="8">
         <v>49</v>
       </c>
-      <c r="C119" s="28">
-        <v>5.4000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
+      <c r="C125" s="23">
+        <v>7.5395316644795998E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B126" s="6">
         <v>49</v>
       </c>
-      <c r="C120" s="30">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="14">
+      <c r="C126" s="25">
+        <v>0.15726432366662599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B127" s="45">
         <v>50</v>
       </c>
-      <c r="C121" s="31">
-        <v>3.7000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="13" t="s">
+      <c r="C127" s="46">
+        <v>0.23016556530039101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B122" s="12">
-        <v>50</v>
-      </c>
-      <c r="C122" s="33">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="10">
+      <c r="B128" s="6">
         <v>51</v>
       </c>
-      <c r="C123" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
+      <c r="C128" s="25">
+        <v>0.230164959654927</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B124" s="8">
-        <v>51</v>
-      </c>
-      <c r="C124" s="30">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B125" s="6">
+      <c r="B129" s="4">
         <v>52</v>
       </c>
-      <c r="C125" s="35">
-        <v>0.22699999999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B126" s="4">
-        <v>53</v>
-      </c>
-      <c r="C126" s="34">
-        <v>0.22699999999999998</v>
+      <c r="C129" s="29">
+        <v>0.23016526247765901</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C126" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100553AAAAFA06B6240B39104FB8E692371" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5a9d106db548de0beb433afb403fadf5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e750500f-42a5-4b8d-9659-3e1833e664de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e8745a13ef5b43371a05dcbb9dea391" ns2:_="">
     <xsd:import namespace="e750500f-42a5-4b8d-9659-3e1833e664de"/>
@@ -3037,24 +3133,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61689470-BBC9-4AE0-9815-28B25381F91E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD5482D-E383-4EEB-BB4E-A991C54640D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1985A896-5257-4F4F-8380-2E1628F05DA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3070,4 +3164,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD5482D-E383-4EEB-BB4E-A991C54640D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61689470-BBC9-4AE0-9815-28B25381F91E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>